--- a/KronoXConverter/Resources/Spreadsheets/Setup.xlsx
+++ b/KronoXConverter/Resources/Spreadsheets/Setup.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>KronoX Converter Setup Sheet 1</t>
   </si>
   <si>
-    <t>Your spreadsheet schedule is almost done, just follow the instructions below</t>
+    <t>Your spreadsheet schedule is almost done, please follow the instructions below</t>
   </si>
   <si>
     <r>
@@ -37,10 +37,7 @@
     </r>
   </si>
   <si>
-    <t>2.  Copy the URL of this (the new) spreadsheet</t>
-  </si>
-  <si>
-    <t>3.  Open a copy of KronoX Converter Setup Sheet 2 by clicking the link below</t>
+    <t>2.  Open a copy of KronoX Converter Setup Sheet 2 by clicking the link below</t>
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1oiEx8Ff_kgC-HWAq7jmftVffpSJs7mUi_dR-ZhyVk4w/copy#gid=0</t>
@@ -55,6 +52,7 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -358,11 +356,11 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="3.0"/>
-    <col customWidth="1" min="3" max="3" width="100.14"/>
-    <col customWidth="1" min="4" max="4" width="3.0"/>
+    <col customWidth="1" min="2" max="2" width="2.63"/>
+    <col customWidth="1" min="3" max="3" width="87.63"/>
+    <col customWidth="1" min="4" max="4" width="2.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,8 +679,8 @@
     </row>
     <row r="12">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2"/>
@@ -711,8 +709,8 @@
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -739,8 +737,8 @@
     </row>
     <row r="14">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2"/>
@@ -769,8 +767,8 @@
     </row>
     <row r="15">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -798,9 +796,7 @@
     <row r="16">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -827,8 +823,8 @@
     </row>
     <row r="17">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -855,8 +851,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -883,8 +878,8 @@
     </row>
     <row r="19">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -911,7 +906,8 @@
     </row>
     <row r="20">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3120,68 +3116,12 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="gid=0" ref="C16"/>
+    <hyperlink r:id="rId1" location="gid=0" ref="C14"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
